--- a/A-开发相关文档素材/0.设计文档/智能日历.xlsx
+++ b/A-开发相关文档素材/0.设计文档/智能日历.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="266">
   <si>
     <t>智能日历概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,6 +1036,86 @@
   </si>
   <si>
     <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行人任务状态更新，发布人接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人修改任务，执行人接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人发布任务，执行人接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分享纪念日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分享记事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人催促执行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/task/issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/task/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/task/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/task/press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分享日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分享app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/share/schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/share/app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/share/note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/share/memorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/official/notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/official/personal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1525,33 +1605,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1564,52 +1695,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1624,23 +1719,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2371,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2385,14 +2465,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="43" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2439,20 +2629,20 @@
       <c r="P2" s="31"/>
     </row>
     <row r="3" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="72"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="47" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="49"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="33"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
@@ -2482,35 +2672,35 @@
       <c r="P6" s="31"/>
     </row>
     <row r="7" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="72"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="44"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
       <c r="P7" s="33"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="58"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="48"/>
     </row>
     <row r="8" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J8" s="32"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="46"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
       <c r="P8" s="33"/>
-      <c r="V8" s="59"/>
+      <c r="V8" s="49"/>
     </row>
     <row r="9" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J9" s="36"/>
@@ -2520,7 +2710,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
       <c r="P9" s="38"/>
-      <c r="V9" s="59"/>
+      <c r="V9" s="49"/>
     </row>
     <row r="10" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J10" s="35"/>
@@ -2530,7 +2720,7 @@
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="35"/>
-      <c r="V10" s="59"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J11" s="29"/>
@@ -2540,38 +2730,38 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="31"/>
-      <c r="V11" s="59"/>
+      <c r="V11" s="49"/>
     </row>
     <row r="12" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="72"/>
       <c r="J12" s="32"/>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="44"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="59"/>
+      <c r="V12" s="49"/>
     </row>
     <row r="13" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J13" s="32"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="46"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
       <c r="P13" s="33"/>
-      <c r="V13" s="59"/>
+      <c r="V13" s="49"/>
     </row>
     <row r="14" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J14" s="32"/>
@@ -2581,39 +2771,39 @@
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
       <c r="P14" s="33"/>
-      <c r="V14" s="60"/>
+      <c r="V14" s="50"/>
     </row>
     <row r="15" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J15" s="32"/>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="44"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="33"/>
-      <c r="S15" s="63" t="s">
+      <c r="S15" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="65"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J16" s="32"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="46"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
       <c r="P16" s="33"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="68"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="58"/>
     </row>
     <row r="17" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J17" s="36"/>
@@ -2623,75 +2813,75 @@
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="38"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="68"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
     </row>
     <row r="18" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="S18" s="66"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="68"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="58"/>
     </row>
     <row r="19" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="S19" s="66"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="68"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
     </row>
     <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="68"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="71"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="58"/>
     </row>
     <row r="21" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="55"/>
+      <c r="H21" s="72"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="44"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="65"/>
       <c r="P21" s="33"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="68"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
     </row>
     <row r="22" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J22" s="32"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="46"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="68"/>
       <c r="P22" s="34"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="71"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="61"/>
     </row>
     <row r="23" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J23" s="32"/>
@@ -2701,27 +2891,27 @@
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="P23" s="33"/>
-      <c r="V23" s="61"/>
+      <c r="V23" s="51"/>
     </row>
     <row r="24" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J24" s="32"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="35"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="44"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="65"/>
       <c r="P24" s="33"/>
-      <c r="V24" s="59"/>
+      <c r="V24" s="49"/>
     </row>
     <row r="25" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J25" s="32"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="35"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="68"/>
       <c r="P25" s="33"/>
-      <c r="V25" s="59"/>
+      <c r="V25" s="49"/>
     </row>
     <row r="26" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J26" s="32"/>
@@ -2731,32 +2921,32 @@
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
       <c r="P26" s="33"/>
-      <c r="V26" s="59"/>
+      <c r="V26" s="49"/>
     </row>
     <row r="27" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J27" s="32"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="44"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="65"/>
       <c r="M27" s="35"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="33"/>
-      <c r="V27" s="59"/>
+      <c r="V27" s="49"/>
     </row>
     <row r="28" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J28" s="32"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="68"/>
       <c r="M28" s="35"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="46"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="68"/>
       <c r="P28" s="33"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="52"/>
     </row>
     <row r="29" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J29" s="32"/>
@@ -2769,20 +2959,20 @@
     </row>
     <row r="30" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J30" s="32"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="44"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="65"/>
       <c r="M30" s="35"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="44"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="65"/>
       <c r="P30" s="33"/>
     </row>
     <row r="31" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J31" s="32"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="68"/>
       <c r="M31" s="35"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="46"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="68"/>
       <c r="P31" s="33"/>
     </row>
     <row r="32" spans="7:23" x14ac:dyDescent="0.15">
@@ -2796,20 +2986,20 @@
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J33" s="32"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="44"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="65"/>
       <c r="M33" s="35"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="44"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="65"/>
       <c r="P33" s="33"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J34" s="32"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="68"/>
       <c r="M34" s="35"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="46"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="68"/>
       <c r="P34" s="33"/>
     </row>
     <row r="35" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2840,27 +3030,27 @@
       <c r="P37" s="31"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="H38" s="55"/>
+      <c r="H38" s="72"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="43" t="s">
+      <c r="K38" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="44"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J39" s="32"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="46"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="68"/>
       <c r="P39" s="33"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.15">
@@ -2874,20 +3064,20 @@
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J41" s="32"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="44"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="65"/>
       <c r="P41" s="33"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J42" s="32"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="46"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="68"/>
       <c r="P42" s="33"/>
     </row>
     <row r="43" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2901,12 +3091,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="V23:V28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="S15:W22"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N33:O34"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K41:O42"/>
     <mergeCell ref="J20:P20"/>
@@ -2923,11 +3112,12 @@
     <mergeCell ref="K15:O16"/>
     <mergeCell ref="K21:O22"/>
     <mergeCell ref="K38:O39"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N33:O34"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="V23:V28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="S15:W22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2981,10 +3171,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -2999,8 +3189,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="24" t="s">
         <v>112</v>
       </c>
@@ -3013,7 +3203,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="14" t="s">
         <v>91</v>
       </c>
@@ -3027,8 +3217,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="73" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -3040,8 +3230,8 @@
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="24" t="s">
         <v>94</v>
       </c>
@@ -3051,8 +3241,8 @@
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="24" t="s">
         <v>116</v>
       </c>
@@ -3065,8 +3255,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="73" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -3078,8 +3268,8 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="24" t="s">
         <v>96</v>
       </c>
@@ -3092,8 +3282,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="24" t="s">
         <v>97</v>
       </c>
@@ -3106,8 +3296,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="24" t="s">
         <v>123</v>
       </c>
@@ -3120,8 +3310,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="24" t="s">
         <v>99</v>
       </c>
@@ -3134,8 +3324,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="24" t="s">
         <v>101</v>
       </c>
@@ -3148,8 +3338,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="24" t="s">
         <v>126</v>
       </c>
@@ -3159,8 +3349,8 @@
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="24" t="s">
         <v>128</v>
       </c>
@@ -3173,33 +3363,33 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
       <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="24" t="s">
         <v>130</v>
       </c>
@@ -3212,8 +3402,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="24" t="s">
         <v>131</v>
       </c>
@@ -3226,8 +3416,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="24" t="s">
         <v>133</v>
       </c>
@@ -3240,8 +3430,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="24" t="s">
         <v>159</v>
       </c>
@@ -3249,8 +3439,8 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
-      <c r="B23" s="76" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="73" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -3262,8 +3452,8 @@
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="24" t="s">
         <v>148</v>
       </c>
@@ -3273,8 +3463,8 @@
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="24" t="s">
         <v>149</v>
       </c>
@@ -3284,10 +3474,10 @@
       <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="73" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -3299,8 +3489,8 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="24" t="s">
         <v>139</v>
       </c>
@@ -3310,8 +3500,8 @@
       <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="76" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="73" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -3323,8 +3513,8 @@
       <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="24" t="s">
         <v>142</v>
       </c>
@@ -3334,8 +3524,8 @@
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="76" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="73" t="s">
         <v>143</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -3347,8 +3537,8 @@
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="24" t="s">
         <v>145</v>
       </c>
@@ -3358,7 +3548,7 @@
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="73" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -3369,7 +3559,7 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="14" t="s">
         <v>152</v>
       </c>
@@ -3378,7 +3568,7 @@
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="14" t="s">
         <v>153</v>
       </c>
@@ -3387,7 +3577,7 @@
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="73" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -3398,14 +3588,14 @@
       <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="22"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="78"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="14" t="s">
         <v>156</v>
       </c>
@@ -3577,6 +3767,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="A3:A16"/>
@@ -3588,11 +3783,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3733,16 +3923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -3847,7 +4037,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3865,7 +4055,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -3879,7 +4069,7 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -3893,7 +4083,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3907,7 +4097,7 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -3921,7 +4111,7 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3935,7 +4125,7 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -3949,7 +4139,7 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3959,7 +4149,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3981,7 +4171,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
@@ -3999,7 +4189,7 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
@@ -4017,7 +4207,7 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -4035,7 +4225,7 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -4053,7 +4243,7 @@
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -4071,7 +4261,7 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
@@ -4089,7 +4279,7 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="78"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4099,16 +4289,16 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="79" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="79" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -4123,12 +4313,12 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="75"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="13"/>
       <c r="F24" s="3">
         <v>2.5</v>
@@ -4139,8 +4329,8 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="79" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -4159,8 +4349,8 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
@@ -4177,8 +4367,8 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="77"/>
-      <c r="B27" s="74" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="79" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -4197,8 +4387,8 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="3" t="s">
         <v>178</v>
       </c>
@@ -4215,8 +4405,8 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="74" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="79" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4235,8 +4425,8 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="3" t="s">
         <v>173</v>
       </c>
@@ -4253,8 +4443,8 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="13"/>
@@ -4267,7 +4457,7 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="73" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4289,7 +4479,7 @@
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
@@ -4307,7 +4497,7 @@
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
@@ -4429,16 +4619,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-开发相关文档素材/0.设计文档/智能日历.xlsx
+++ b/A-开发相关文档素材/0.设计文档/智能日历.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="267">
   <si>
     <t>智能日历概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1116,6 +1116,10 @@
   </si>
   <si>
     <t>/official/personal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换机类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1608,12 +1612,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1662,38 +1699,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1706,18 +1722,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2451,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2464,7 +2468,7 @@
     <col min="4" max="4" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>244</v>
       </c>
@@ -2474,8 +2478,12 @@
       <c r="C1" s="43" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2486,7 +2494,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2508,7 +2516,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2530,7 +2538,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2541,7 +2549,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2563,7 +2571,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2574,7 +2582,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2629,20 +2637,20 @@
       <c r="P2" s="31"/>
     </row>
     <row r="3" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="72"/>
+      <c r="H3" s="56"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="44" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="45"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="33"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
@@ -2672,35 +2680,35 @@
       <c r="P6" s="31"/>
     </row>
     <row r="7" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="56"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="45"/>
       <c r="P7" s="33"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J8" s="32"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="33"/>
-      <c r="V8" s="49"/>
+      <c r="V8" s="60"/>
     </row>
     <row r="9" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J9" s="36"/>
@@ -2710,7 +2718,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
       <c r="P9" s="38"/>
-      <c r="V9" s="49"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J10" s="35"/>
@@ -2720,7 +2728,7 @@
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="35"/>
-      <c r="V10" s="49"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J11" s="29"/>
@@ -2730,38 +2738,38 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="31"/>
-      <c r="V11" s="49"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="56"/>
       <c r="J12" s="32"/>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="65"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="45"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="49"/>
+      <c r="V12" s="60"/>
     </row>
     <row r="13" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J13" s="32"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="47"/>
       <c r="P13" s="33"/>
-      <c r="V13" s="49"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J14" s="32"/>
@@ -2771,39 +2779,39 @@
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
       <c r="P14" s="33"/>
-      <c r="V14" s="50"/>
+      <c r="V14" s="61"/>
     </row>
     <row r="15" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J15" s="32"/>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="45"/>
       <c r="P15" s="33"/>
-      <c r="S15" s="53" t="s">
+      <c r="S15" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="66"/>
     </row>
     <row r="16" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J16" s="32"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="47"/>
       <c r="P16" s="33"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="58"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J17" s="36"/>
@@ -2813,75 +2821,75 @@
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="38"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="58"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="58"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="69"/>
     </row>
     <row r="19" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="S19" s="56"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="58"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="69"/>
     </row>
     <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="71"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="58"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="69"/>
     </row>
     <row r="21" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="72"/>
+      <c r="H21" s="56"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="65"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="45"/>
       <c r="P21" s="33"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="58"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="69"/>
     </row>
     <row r="22" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J22" s="32"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="68"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="47"/>
       <c r="P22" s="34"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="61"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="72"/>
     </row>
     <row r="23" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J23" s="32"/>
@@ -2891,27 +2899,27 @@
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="P23" s="33"/>
-      <c r="V23" s="51"/>
+      <c r="V23" s="62"/>
     </row>
     <row r="24" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J24" s="32"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="65"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="35"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="65"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
       <c r="P24" s="33"/>
-      <c r="V24" s="49"/>
+      <c r="V24" s="60"/>
     </row>
     <row r="25" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J25" s="32"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="68"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="35"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="68"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
       <c r="P25" s="33"/>
-      <c r="V25" s="49"/>
+      <c r="V25" s="60"/>
     </row>
     <row r="26" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J26" s="32"/>
@@ -2921,32 +2929,32 @@
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
       <c r="P26" s="33"/>
-      <c r="V26" s="49"/>
+      <c r="V26" s="60"/>
     </row>
     <row r="27" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J27" s="32"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="65"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
       <c r="M27" s="35"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="65"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="33"/>
-      <c r="V27" s="49"/>
+      <c r="V27" s="60"/>
     </row>
     <row r="28" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J28" s="32"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="68"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
       <c r="M28" s="35"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="68"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="47"/>
       <c r="P28" s="33"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="52"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="63"/>
     </row>
     <row r="29" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J29" s="32"/>
@@ -2959,20 +2967,20 @@
     </row>
     <row r="30" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J30" s="32"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="65"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="35"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="65"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="45"/>
       <c r="P30" s="33"/>
     </row>
     <row r="31" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J31" s="32"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="68"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
       <c r="M31" s="35"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="68"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="47"/>
       <c r="P31" s="33"/>
     </row>
     <row r="32" spans="7:23" x14ac:dyDescent="0.15">
@@ -2986,20 +2994,20 @@
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J33" s="32"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="65"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="35"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="65"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="45"/>
       <c r="P33" s="33"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J34" s="32"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="68"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="47"/>
       <c r="M34" s="35"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="68"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="47"/>
       <c r="P34" s="33"/>
     </row>
     <row r="35" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3030,27 +3038,27 @@
       <c r="P37" s="31"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="H38" s="72"/>
+      <c r="H38" s="56"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="63" t="s">
+      <c r="K38" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="45"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J39" s="32"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="68"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="47"/>
       <c r="P39" s="33"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.15">
@@ -3064,20 +3072,20 @@
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J41" s="32"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="65"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="45"/>
       <c r="P41" s="33"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J42" s="32"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="68"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="47"/>
       <c r="P42" s="33"/>
     </row>
     <row r="43" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3091,11 +3099,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N33:O34"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="V23:V28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="S15:W22"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K41:O42"/>
     <mergeCell ref="J20:P20"/>
@@ -3112,12 +3121,11 @@
     <mergeCell ref="K15:O16"/>
     <mergeCell ref="K21:O22"/>
     <mergeCell ref="K38:O39"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="V23:V28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="S15:W22"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N33:O34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3171,10 +3179,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="80" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -3189,8 +3197,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="24" t="s">
         <v>112</v>
       </c>
@@ -3203,7 +3211,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="14" t="s">
         <v>91</v>
       </c>
@@ -3217,8 +3225,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="77" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -3230,8 +3238,8 @@
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="24" t="s">
         <v>94</v>
       </c>
@@ -3241,8 +3249,8 @@
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="24" t="s">
         <v>116</v>
       </c>
@@ -3255,8 +3263,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="77" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -3268,8 +3276,8 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="24" t="s">
         <v>96</v>
       </c>
@@ -3282,8 +3290,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="24" t="s">
         <v>97</v>
       </c>
@@ -3296,8 +3304,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="24" t="s">
         <v>123</v>
       </c>
@@ -3310,8 +3318,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="24" t="s">
         <v>99</v>
       </c>
@@ -3324,8 +3332,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="24" t="s">
         <v>101</v>
       </c>
@@ -3338,8 +3346,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="24" t="s">
         <v>126</v>
       </c>
@@ -3349,8 +3357,8 @@
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="24" t="s">
         <v>128</v>
       </c>
@@ -3363,33 +3371,33 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="24" t="s">
         <v>130</v>
       </c>
@@ -3402,8 +3410,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="24" t="s">
         <v>131</v>
       </c>
@@ -3416,8 +3424,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="24" t="s">
         <v>133</v>
       </c>
@@ -3430,8 +3438,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="24" t="s">
         <v>159</v>
       </c>
@@ -3439,8 +3447,8 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
-      <c r="B23" s="73" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="77" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -3452,8 +3460,8 @@
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="24" t="s">
         <v>148</v>
       </c>
@@ -3463,8 +3471,8 @@
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="24" t="s">
         <v>149</v>
       </c>
@@ -3474,10 +3482,10 @@
       <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="77" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -3489,8 +3497,8 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="24" t="s">
         <v>139</v>
       </c>
@@ -3500,8 +3508,8 @@
       <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="73" t="s">
+      <c r="A28" s="78"/>
+      <c r="B28" s="77" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -3513,8 +3521,8 @@
       <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="24" t="s">
         <v>142</v>
       </c>
@@ -3524,8 +3532,8 @@
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="78"/>
+      <c r="B30" s="77" t="s">
         <v>143</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -3537,8 +3545,8 @@
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="24" t="s">
         <v>145</v>
       </c>
@@ -3548,7 +3556,7 @@
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="77" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -3559,7 +3567,7 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="14" t="s">
         <v>152</v>
       </c>
@@ -3568,7 +3576,7 @@
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="75"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="14" t="s">
         <v>153</v>
       </c>
@@ -3577,7 +3585,7 @@
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="77" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -3588,14 +3596,14 @@
       <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="22"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="75"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="14" t="s">
         <v>156</v>
       </c>
@@ -3767,11 +3775,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="A3:A16"/>
@@ -3783,6 +3786,11 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3923,16 +3931,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -4037,7 +4045,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="77" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4055,7 +4063,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -4069,7 +4077,7 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -4083,7 +4091,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -4097,7 +4105,7 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -4111,7 +4119,7 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -4125,7 +4133,7 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -4139,7 +4147,7 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4149,7 +4157,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="77" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4171,7 +4179,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
@@ -4189,7 +4197,7 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
@@ -4207,7 +4215,7 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -4225,7 +4233,7 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -4243,7 +4251,7 @@
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -4261,7 +4269,7 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
@@ -4279,7 +4287,7 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="75"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4289,16 +4297,16 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="75" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="75" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -4313,12 +4321,12 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="13"/>
       <c r="F24" s="3">
         <v>2.5</v>
@@ -4329,8 +4337,8 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="74"/>
-      <c r="B25" s="79" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="75" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -4349,7 +4357,7 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="81"/>
       <c r="C26" s="3" t="s">
         <v>46</v>
@@ -4367,8 +4375,8 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="74"/>
-      <c r="B27" s="79" t="s">
+      <c r="A27" s="78"/>
+      <c r="B27" s="75" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -4387,8 +4395,8 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="3" t="s">
         <v>178</v>
       </c>
@@ -4405,8 +4413,8 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
-      <c r="B29" s="79" t="s">
+      <c r="A29" s="78"/>
+      <c r="B29" s="75" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4425,7 +4433,7 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="81"/>
       <c r="C30" s="3" t="s">
         <v>173</v>
@@ -4443,8 +4451,8 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="13"/>
@@ -4457,7 +4465,7 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="77" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4479,7 +4487,7 @@
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
@@ -4497,7 +4505,7 @@
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
@@ -4619,16 +4627,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-开发相关文档素材/0.设计文档/智能日历.xlsx
+++ b/A-开发相关文档素材/0.设计文档/智能日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="开发计划" sheetId="6" r:id="rId6"/>
     <sheet name="线框图" sheetId="7" r:id="rId7"/>
     <sheet name="工作记录" sheetId="8" r:id="rId8"/>
-    <sheet name="Answer" sheetId="9" r:id="rId9"/>
+    <sheet name="服务器架设" sheetId="9" r:id="rId9"/>
     <sheet name="语音助手服务调用接口" sheetId="10" r:id="rId10"/>
     <sheet name="MQ消息队列" sheetId="11" r:id="rId11"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="256">
   <si>
     <t>智能日历概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -874,50 +874,6 @@
   </si>
   <si>
     <t>实现登陆，添加日程，推送日程，接受日程，实现提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做成这个项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对项目，阶段性目标，阶段性目标有标准定义，分化小目标有时间限定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能分化实现上，分工协作，每个人拿到对应的工作内容，要确保工作质量和效率，也有对应的标志和时限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个需求点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成手动添加日程并发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得接收，反馈状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册，登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动添加，发布，推送，查询。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收，并反馈。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成需求：用户创建日程并指派给执行人，日程创建成功的同时，会将发布人和执行人生成一个群组，组内会展示群组内所有事件。执行人会得到事件推送，并在个人日程列表中获得事件。并且会根据日程提醒时间启用闹钟提醒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个需求：在同一个群组内，组内成员可以对其他成员自由发布日程。待办事项日历展示，可读取本地日历。追踪用户关注日程，展示在关注列表内。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1612,44 +1568,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1699,17 +1622,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1722,6 +1666,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2056,6 +2012,1882 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="2581275"/>
+          <a:ext cx="2038350" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RabbitMQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>消息队列服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="2590800"/>
+          <a:ext cx="2038350" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>应用后台服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982325" y="2581275"/>
+          <a:ext cx="2038350" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>语义解析服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="352425"/>
+          <a:ext cx="2038350" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>后台管理服务平台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="6877050"/>
+          <a:ext cx="2047875" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="317500" dir="2700000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="perspectiveFront" fov="2700000">
+            <a:rot lat="19086000" lon="19067999" rev="3108000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d extrusionH="38100" prstMaterial="clear">
+          <a:bevelT w="260350" h="50800" prst="softRound"/>
+          <a:bevelB prst="softRound"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6657975" y="3771900"/>
+          <a:ext cx="0" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="285750" cy="825867"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="5762625"/>
+          <a:ext cx="285750" cy="825867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>业务流程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="3800475"/>
+          <a:ext cx="0" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="285750" cy="825867"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="1590675"/>
+          <a:ext cx="285750" cy="825867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2162175" y="4486275"/>
+          <a:ext cx="3857626" cy="2333623"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99877"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="2914650"/>
+          <a:ext cx="2114550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8505825" y="3257550"/>
+          <a:ext cx="2095500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3781425" y="3314700"/>
+          <a:ext cx="2095500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文本框 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="2571750"/>
+          <a:ext cx="1031051" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语音数据传入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文本框 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="3333750"/>
+          <a:ext cx="1031051" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>解析数据回传</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文本框 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="3362325"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>生产消息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="文本框 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="7277100"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消费消息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="肘形连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2324101" y="800100"/>
+          <a:ext cx="3590925" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100133"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="文本框 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="400050"/>
+          <a:ext cx="1031051" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统消息群发</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6724650" y="1466850"/>
+          <a:ext cx="0" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="1466850"/>
+          <a:ext cx="0" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="285750" cy="825867"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文本框 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="1600200"/>
+          <a:ext cx="285750" cy="825867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="285750" cy="825867"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="文本框 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="4419600"/>
+          <a:ext cx="285750" cy="825867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据返回</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452157</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>328333</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9338422" y="5251637"/>
+          <a:ext cx="6028205" cy="4249831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>507067</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>337857</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11444008" y="5334000"/>
+          <a:ext cx="1881467" cy="1027580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="139700" h="139700"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>204507</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>69477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280708</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>94690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9774331" y="6793006"/>
+          <a:ext cx="1443318" cy="2042272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语音输入后需在客户端经由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>base64</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>转码之后提交后台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>118783</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>59952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>194982</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11739283" y="6783481"/>
+          <a:ext cx="1443317" cy="2045634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语音解析完毕后返回业务数据需跳转文字界面经由用户确认，才提交入库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4483</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>69477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>94690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="矩形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13675659" y="6793006"/>
+          <a:ext cx="1443318" cy="2042272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>接收返回信息后语音播报语音字段数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="4524375"/>
+          <a:ext cx="1447800" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语音输入后需在客户端经由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>base64</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>转码之后提交后台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820025" y="5467350"/>
+          <a:ext cx="1447800" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回数据结构包含多种信息，例如：语音播报信息和实际业务数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="4419600"/>
+          <a:ext cx="1447800" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语音业务操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>接收到消息推送后用户接收数据入库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>手动业务操作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877550" y="3771900"/>
+          <a:ext cx="2381250" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语音服务器通过学习扩展自身词库，对不同语音指令返回对应标识值，方便业务处理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250771</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8415057" y="421821"/>
+          <a:ext cx="2361720" cy="893990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>后台管理平台处理用户信息，统一推送系统消息等</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -2403,7 +4235,7 @@
   <dimension ref="B1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2413,37 +4245,37 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="42" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +4289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2470,16 +4302,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E1" s="43"/>
     </row>
@@ -2488,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2499,10 +4331,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2510,10 +4342,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2521,10 +4353,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2532,10 +4364,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2543,10 +4375,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2554,10 +4386,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2565,10 +4397,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2576,10 +4408,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2587,10 +4419,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2637,20 +4469,20 @@
       <c r="P2" s="31"/>
     </row>
     <row r="3" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G3" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="56"/>
+      <c r="G3" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="72"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="O3" s="50"/>
+      <c r="K3" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="62"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="45"/>
       <c r="P3" s="33"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
@@ -2680,35 +4512,35 @@
       <c r="P6" s="31"/>
     </row>
     <row r="7" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G7" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="56"/>
+      <c r="G7" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="72"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="45"/>
+      <c r="K7" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
       <c r="P7" s="33"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="59"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="48"/>
     </row>
     <row r="8" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J8" s="32"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="47"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
       <c r="P8" s="33"/>
-      <c r="V8" s="60"/>
+      <c r="V8" s="49"/>
     </row>
     <row r="9" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J9" s="36"/>
@@ -2718,7 +4550,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
       <c r="P9" s="38"/>
-      <c r="V9" s="60"/>
+      <c r="V9" s="49"/>
     </row>
     <row r="10" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J10" s="35"/>
@@ -2728,7 +4560,7 @@
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="35"/>
-      <c r="V10" s="60"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J11" s="29"/>
@@ -2738,38 +4570,38 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="31"/>
-      <c r="V11" s="60"/>
+      <c r="V11" s="49"/>
     </row>
     <row r="12" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G12" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="56"/>
+      <c r="G12" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="72"/>
       <c r="J12" s="32"/>
-      <c r="K12" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="45"/>
+      <c r="K12" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="60"/>
+      <c r="V12" s="49"/>
     </row>
     <row r="13" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J13" s="32"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="47"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
       <c r="P13" s="33"/>
-      <c r="V13" s="60"/>
+      <c r="V13" s="49"/>
     </row>
     <row r="14" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J14" s="32"/>
@@ -2779,39 +4611,39 @@
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
       <c r="P14" s="33"/>
-      <c r="V14" s="61"/>
+      <c r="V14" s="50"/>
     </row>
     <row r="15" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J15" s="32"/>
-      <c r="K15" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="45"/>
+      <c r="K15" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="33"/>
-      <c r="S15" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="66"/>
+      <c r="S15" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J16" s="32"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="47"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
       <c r="P16" s="33"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="69"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="58"/>
     </row>
     <row r="17" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J17" s="36"/>
@@ -2821,75 +4653,75 @@
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="38"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="69"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
     </row>
     <row r="18" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="S18" s="67"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="69"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="58"/>
     </row>
     <row r="19" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="S19" s="67"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="69"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
     </row>
     <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="J20" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="69"/>
+      <c r="J20" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="71"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="58"/>
     </row>
     <row r="21" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="56"/>
+      <c r="H21" s="72"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="45"/>
+      <c r="K21" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="65"/>
       <c r="P21" s="33"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="69"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
     </row>
     <row r="22" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J22" s="32"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="47"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="68"/>
       <c r="P22" s="34"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="72"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="61"/>
     </row>
     <row r="23" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J23" s="32"/>
@@ -2899,27 +4731,27 @@
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="P23" s="33"/>
-      <c r="V23" s="62"/>
+      <c r="V23" s="51"/>
     </row>
     <row r="24" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J24" s="32"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="35"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="65"/>
       <c r="P24" s="33"/>
-      <c r="V24" s="60"/>
+      <c r="V24" s="49"/>
     </row>
     <row r="25" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J25" s="32"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="35"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="68"/>
       <c r="P25" s="33"/>
-      <c r="V25" s="60"/>
+      <c r="V25" s="49"/>
     </row>
     <row r="26" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J26" s="32"/>
@@ -2929,32 +4761,32 @@
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
       <c r="P26" s="33"/>
-      <c r="V26" s="60"/>
+      <c r="V26" s="49"/>
     </row>
     <row r="27" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J27" s="32"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="65"/>
       <c r="M27" s="35"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="33"/>
-      <c r="V27" s="60"/>
+      <c r="V27" s="49"/>
     </row>
     <row r="28" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J28" s="32"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="68"/>
       <c r="M28" s="35"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="47"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="68"/>
       <c r="P28" s="33"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="63"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="52"/>
     </row>
     <row r="29" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J29" s="32"/>
@@ -2967,20 +4799,20 @@
     </row>
     <row r="30" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J30" s="32"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="65"/>
       <c r="M30" s="35"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="45"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="65"/>
       <c r="P30" s="33"/>
     </row>
     <row r="31" spans="7:23" x14ac:dyDescent="0.15">
       <c r="J31" s="32"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="68"/>
       <c r="M31" s="35"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="47"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="68"/>
       <c r="P31" s="33"/>
     </row>
     <row r="32" spans="7:23" x14ac:dyDescent="0.15">
@@ -2994,20 +4826,20 @@
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J33" s="32"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="45"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="65"/>
       <c r="M33" s="35"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="65"/>
       <c r="P33" s="33"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J34" s="32"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="47"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="68"/>
       <c r="M34" s="35"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="47"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="68"/>
       <c r="P34" s="33"/>
     </row>
     <row r="35" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3038,27 +4870,27 @@
       <c r="P37" s="31"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G38" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="H38" s="56"/>
+      <c r="G38" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="H38" s="72"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="45"/>
+      <c r="K38" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J39" s="32"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="47"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="68"/>
       <c r="P39" s="33"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.15">
@@ -3072,20 +4904,20 @@
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J41" s="32"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="45"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="65"/>
       <c r="P41" s="33"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.15">
       <c r="J42" s="32"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="47"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="68"/>
       <c r="P42" s="33"/>
     </row>
     <row r="43" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3099,12 +4931,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="V23:V28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="S15:W22"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N33:O34"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K41:O42"/>
     <mergeCell ref="J20:P20"/>
@@ -3121,11 +4952,12 @@
     <mergeCell ref="K15:O16"/>
     <mergeCell ref="K21:O22"/>
     <mergeCell ref="K38:O39"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N33:O34"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="V23:V28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="S15:W22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3179,10 +5011,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -3197,8 +5029,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="24" t="s">
         <v>112</v>
       </c>
@@ -3211,7 +5043,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="14" t="s">
         <v>91</v>
       </c>
@@ -3225,8 +5057,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="73" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -3238,8 +5070,8 @@
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="24" t="s">
         <v>94</v>
       </c>
@@ -3249,8 +5081,8 @@
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="24" t="s">
         <v>116</v>
       </c>
@@ -3263,8 +5095,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="78"/>
-      <c r="B9" s="77" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="73" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -3276,8 +5108,8 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="24" t="s">
         <v>96</v>
       </c>
@@ -3290,8 +5122,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="24" t="s">
         <v>97</v>
       </c>
@@ -3304,8 +5136,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="24" t="s">
         <v>123</v>
       </c>
@@ -3318,8 +5150,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="24" t="s">
         <v>99</v>
       </c>
@@ -3332,8 +5164,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="24" t="s">
         <v>101</v>
       </c>
@@ -3346,8 +5178,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="24" t="s">
         <v>126</v>
       </c>
@@ -3357,8 +5189,8 @@
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="24" t="s">
         <v>128</v>
       </c>
@@ -3371,33 +5203,33 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
       <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="24" t="s">
         <v>130</v>
       </c>
@@ -3410,8 +5242,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="24" t="s">
         <v>131</v>
       </c>
@@ -3424,8 +5256,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="24" t="s">
         <v>133</v>
       </c>
@@ -3438,8 +5270,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="24" t="s">
         <v>159</v>
       </c>
@@ -3447,8 +5279,8 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="78"/>
-      <c r="B23" s="77" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="73" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -3460,8 +5292,8 @@
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="24" t="s">
         <v>148</v>
       </c>
@@ -3471,8 +5303,8 @@
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="24" t="s">
         <v>149</v>
       </c>
@@ -3482,10 +5314,10 @@
       <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="73" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -3497,8 +5329,8 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="24" t="s">
         <v>139</v>
       </c>
@@ -3508,8 +5340,8 @@
       <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
-      <c r="B28" s="77" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="73" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -3521,8 +5353,8 @@
       <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="24" t="s">
         <v>142</v>
       </c>
@@ -3532,8 +5364,8 @@
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
-      <c r="B30" s="77" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="73" t="s">
         <v>143</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -3545,8 +5377,8 @@
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="24" t="s">
         <v>145</v>
       </c>
@@ -3556,7 +5388,7 @@
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="73" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -3567,7 +5399,7 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="14" t="s">
         <v>152</v>
       </c>
@@ -3576,7 +5408,7 @@
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="79"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="14" t="s">
         <v>153</v>
       </c>
@@ -3585,7 +5417,7 @@
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="73" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -3596,14 +5428,14 @@
       <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="22"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="79"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="14" t="s">
         <v>156</v>
       </c>
@@ -3775,6 +5607,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="A3:A16"/>
@@ -3786,11 +5623,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3931,16 +5763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -4045,7 +5877,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4063,7 +5895,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="78"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -4077,7 +5909,7 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="78"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -4091,7 +5923,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -4105,7 +5937,7 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -4119,7 +5951,7 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="78"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -4133,7 +5965,7 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="78"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -4147,7 +5979,7 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="79"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4157,7 +5989,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4179,7 +6011,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
@@ -4197,7 +6029,7 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="78"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
@@ -4215,7 +6047,7 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="78"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -4233,7 +6065,7 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -4251,7 +6083,7 @@
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -4269,7 +6101,7 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
@@ -4287,7 +6119,7 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="79"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4297,16 +6129,16 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="79" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="79" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -4321,12 +6153,12 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="78"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="13"/>
       <c r="F24" s="3">
         <v>2.5</v>
@@ -4337,8 +6169,8 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="78"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="79" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -4357,7 +6189,7 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="78"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="81"/>
       <c r="C26" s="3" t="s">
         <v>46</v>
@@ -4375,8 +6207,8 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="79" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -4395,8 +6227,8 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="3" t="s">
         <v>178</v>
       </c>
@@ -4413,8 +6245,8 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="79" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4433,7 +6265,7 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="81"/>
       <c r="C30" s="3" t="s">
         <v>173</v>
@@ -4451,8 +6283,8 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="13"/>
@@ -4465,7 +6297,7 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="73" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4487,7 +6319,7 @@
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
@@ -4505,7 +6337,7 @@
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
@@ -4627,16 +6459,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4765,71 +6597,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H20"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/0.设计文档/智能日历.xlsx
+++ b/A-开发相关文档素材/0.设计文档/智能日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,17 @@
     <sheet name="产品技术点汇总" sheetId="4" r:id="rId5"/>
     <sheet name="开发计划" sheetId="6" r:id="rId6"/>
     <sheet name="线框图" sheetId="7" r:id="rId7"/>
-    <sheet name="工作记录" sheetId="8" r:id="rId8"/>
-    <sheet name="服务器架设" sheetId="9" r:id="rId9"/>
-    <sheet name="语音助手服务调用接口" sheetId="10" r:id="rId10"/>
-    <sheet name="MQ消息队列" sheetId="11" r:id="rId11"/>
+    <sheet name="语音助手服务调用接口" sheetId="10" r:id="rId8"/>
+    <sheet name="MQ消息队列" sheetId="11" r:id="rId9"/>
+    <sheet name="服务器架设" sheetId="9" r:id="rId10"/>
+    <sheet name="Json数据格式" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="242">
   <si>
     <t>智能日历概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,63 +817,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组的添加，查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日历读写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组，日程查询调通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能技术点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送完成，未整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询群组，日程和后台调通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术上java和js循环交互有难点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于项目上，在这个初版demo完成之后，想要先将功能点写出，并做出功能具体预期实现值，之后的迭代开发就以这个预期值为目标去实现来制定具体的开发计划，规整项目开发时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一期预期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现登陆，添加日程，推送日程，接受日程，实现提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1475,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1544,7 +1488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1568,11 +1511,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1622,38 +1598,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1666,18 +1621,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4232,200 +4175,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1" s="42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="37.25" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4460,482 +4232,483 @@
   <sheetData>
     <row r="1" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G3" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="72"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="33"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
+      <c r="G3" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="32"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
     </row>
     <row r="4" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="38"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H5" s="39"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G7" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="72"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
+      <c r="G7" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="55"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J8" s="32"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="33"/>
-      <c r="V8" s="49"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="32"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J9" s="36"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="38"/>
-      <c r="V9" s="49"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="37"/>
+      <c r="V9" s="59"/>
     </row>
     <row r="10" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J10" s="35"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="35"/>
-      <c r="V10" s="49"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="34"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-      <c r="V11" s="49"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G12" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="72"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="49"/>
+      <c r="G12" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J13" s="32"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="33"/>
-      <c r="V13" s="49"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="32"/>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="32"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="33"/>
-      <c r="V14" s="50"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="32"/>
+      <c r="V14" s="60"/>
     </row>
     <row r="15" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J15" s="32"/>
-      <c r="K15" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="33"/>
-      <c r="S15" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="32"/>
+      <c r="S15" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J16" s="32"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="33"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="58"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="32"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="58"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="68"/>
     </row>
     <row r="18" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="58"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="68"/>
     </row>
     <row r="19" spans="7:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="S19" s="56"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="58"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="J20" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="71"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="58"/>
+      <c r="J20" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="68"/>
     </row>
     <row r="21" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="33"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="58"/>
+      <c r="H21" s="55"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="32"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="68"/>
     </row>
     <row r="22" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J22" s="32"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="34"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="61"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="33"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="71"/>
     </row>
     <row r="23" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J23" s="32"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="33"/>
-      <c r="V23" s="51"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="32"/>
+      <c r="V23" s="61"/>
     </row>
     <row r="24" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J24" s="32"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="33"/>
-      <c r="V24" s="49"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="32"/>
+      <c r="V24" s="59"/>
     </row>
     <row r="25" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J25" s="32"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="33"/>
-      <c r="V25" s="49"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="32"/>
+      <c r="V25" s="59"/>
     </row>
     <row r="26" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J26" s="32"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="33"/>
-      <c r="V26" s="49"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="32"/>
+      <c r="V26" s="59"/>
     </row>
     <row r="27" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J27" s="32"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="33"/>
-      <c r="V27" s="49"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="32"/>
+      <c r="V27" s="59"/>
     </row>
     <row r="28" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J28" s="32"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="52"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="62"/>
     </row>
     <row r="29" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J29" s="32"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="33"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="32"/>
     </row>
     <row r="30" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J30" s="32"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="33"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J31" s="32"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="33"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="J32" s="32"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="33"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="J33" s="32"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="33"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="32"/>
     </row>
     <row r="34" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="J34" s="32"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="33"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="32"/>
     </row>
     <row r="35" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="38"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="G38" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="H38" s="72"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="33"/>
+      <c r="G38" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="55"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="32"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="J39" s="32"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="33"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="32"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="J40" s="32"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="33"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="32"/>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="J41" s="32"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="33"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="32"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.15">
-      <c r="J42" s="32"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="33"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="32"/>
     </row>
     <row r="43" spans="7:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="38"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N33:O34"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="V8:V14"/>
+    <mergeCell ref="V23:V28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="S15:W22"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K41:O42"/>
     <mergeCell ref="J20:P20"/>
@@ -4952,12 +4725,11 @@
     <mergeCell ref="K15:O16"/>
     <mergeCell ref="K21:O22"/>
     <mergeCell ref="K38:O39"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="V8:V14"/>
-    <mergeCell ref="V23:V28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="S15:W22"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N33:O34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5005,16 +4777,16 @@
         <v>110</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -5029,8 +4801,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="24" t="s">
         <v>112</v>
       </c>
@@ -5043,7 +4815,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="14" t="s">
         <v>91</v>
       </c>
@@ -5057,8 +4829,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="76" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -5070,8 +4842,8 @@
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="24" t="s">
         <v>94</v>
       </c>
@@ -5081,8 +4853,8 @@
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="24" t="s">
         <v>116</v>
       </c>
@@ -5095,8 +4867,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="76" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -5108,8 +4880,8 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="24" t="s">
         <v>96</v>
       </c>
@@ -5122,8 +4894,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="24" t="s">
         <v>97</v>
       </c>
@@ -5136,8 +4908,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="24" t="s">
         <v>123</v>
       </c>
@@ -5150,8 +4922,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="24" t="s">
         <v>99</v>
       </c>
@@ -5164,8 +4936,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="24" t="s">
         <v>101</v>
       </c>
@@ -5178,8 +4950,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="24" t="s">
         <v>126</v>
       </c>
@@ -5189,8 +4961,8 @@
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="24" t="s">
         <v>128</v>
       </c>
@@ -5203,33 +4975,33 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
       <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="24" t="s">
         <v>130</v>
       </c>
@@ -5242,8 +5014,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="24" t="s">
         <v>131</v>
       </c>
@@ -5256,8 +5028,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="24" t="s">
         <v>133</v>
       </c>
@@ -5270,8 +5042,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="24" t="s">
         <v>159</v>
       </c>
@@ -5279,8 +5051,8 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
-      <c r="B23" s="73" t="s">
+      <c r="A23" s="77"/>
+      <c r="B23" s="76" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -5292,8 +5064,8 @@
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="24" t="s">
         <v>148</v>
       </c>
@@ -5303,8 +5075,8 @@
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="24" t="s">
         <v>149</v>
       </c>
@@ -5314,10 +5086,10 @@
       <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="76" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -5329,8 +5101,8 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="24" t="s">
         <v>139</v>
       </c>
@@ -5340,8 +5112,8 @@
       <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="73" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="76" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -5353,8 +5125,8 @@
       <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="24" t="s">
         <v>142</v>
       </c>
@@ -5364,8 +5136,8 @@
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="76" t="s">
         <v>143</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -5377,8 +5149,8 @@
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="24" t="s">
         <v>145</v>
       </c>
@@ -5388,7 +5160,7 @@
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="76" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -5399,7 +5171,7 @@
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="14" t="s">
         <v>152</v>
       </c>
@@ -5408,7 +5180,7 @@
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="75"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="14" t="s">
         <v>153</v>
       </c>
@@ -5417,7 +5189,7 @@
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="76" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -5428,14 +5200,14 @@
       <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="22"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="75"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="14" t="s">
         <v>156</v>
       </c>
@@ -5607,11 +5379,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="A3:A16"/>
@@ -5623,6 +5390,11 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5763,16 +5535,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -5877,7 +5649,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="76" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -5895,7 +5667,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -5909,7 +5681,7 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -5923,7 +5695,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -5937,7 +5709,7 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -5951,7 +5723,7 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -5965,7 +5737,7 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -5979,7 +5751,7 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5989,7 +5761,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="76" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -6011,7 +5783,7 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
@@ -6029,7 +5801,7 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
@@ -6047,7 +5819,7 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -6065,7 +5837,7 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
@@ -6083,7 +5855,7 @@
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -6101,7 +5873,7 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
@@ -6119,7 +5891,7 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="75"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6129,16 +5901,16 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="74" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="74" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -6153,12 +5925,12 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="13"/>
       <c r="F24" s="3">
         <v>2.5</v>
@@ -6169,8 +5941,8 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="74"/>
-      <c r="B25" s="79" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="74" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -6189,8 +5961,8 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
@@ -6207,8 +5979,8 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="74"/>
-      <c r="B27" s="79" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="74" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -6227,8 +5999,8 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="3" t="s">
         <v>178</v>
       </c>
@@ -6245,8 +6017,8 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
-      <c r="B29" s="79" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="74" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -6265,8 +6037,8 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="81"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="3" t="s">
         <v>173</v>
       </c>
@@ -6283,8 +6055,8 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="13"/>
@@ -6297,7 +6069,7 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -6319,7 +6091,7 @@
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
@@ -6337,7 +6109,7 @@
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
@@ -6455,20 +6227,20 @@
       <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="27"/>
+      <c r="B44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6514,78 +6286,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="26">
-        <v>43227</v>
-      </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="26">
-        <v>43228</v>
-      </c>
-      <c r="D6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" s="41" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>210</v>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6597,17 +6341,147 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="37.25" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>